--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_Ratio_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_Ratio_o.xlsx
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -25622,7 +25622,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -29558,7 +29558,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -31817,7 +31817,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -35150,7 +35150,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -38627,7 +38627,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -42104,7 +42104,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -45581,7 +45581,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
